--- a/graphs_for_presentation/styled_tables/country_connectivity_comparisons_for_slides.xlsx
+++ b/graphs_for_presentation/styled_tables/country_connectivity_comparisons_for_slides.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amstone326/dimagi/deltacs-data-blog/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amstone326/dimagi/deltacs-data-blog/graphs_for_presentation/styled_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="560" windowWidth="27760" windowHeight="15180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Median DeltaCS</t>
-  </si>
-  <si>
     <t>Risk of disconnection</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>not avail.</t>
+  </si>
+  <si>
+    <t>Median DeltaCS (in hours)</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="D15:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="135" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,26 +479,26 @@
         <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="8">
         <v>0.52300000000000002</v>
@@ -506,29 +506,29 @@
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D17" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D18" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2">
         <v>0.54100000000000004</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="11">
         <v>0.39900000000000002</v>
@@ -536,14 +536,14 @@
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D19" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2">
         <v>4.0030000000000001</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" s="8">
         <v>0.98</v>
@@ -551,14 +551,14 @@
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2">
         <v>4.34</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="11">
         <v>0.14099999999999999</v>
@@ -573,14 +573,14 @@
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="3">
         <v>43.075000000000003</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="14">
         <v>3.9E-2</v>
@@ -588,14 +588,14 @@
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="3">
         <v>45.523000000000003</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="14">
         <v>3.2000000000000001E-2</v>
@@ -603,14 +603,14 @@
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="3">
         <v>45.594999999999999</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="14">
         <v>0.03</v>
@@ -618,14 +618,14 @@
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D25" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="3">
         <v>53.011000000000003</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" s="14">
         <v>0</v>
@@ -633,14 +633,14 @@
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D26" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3">
         <v>72.962999999999994</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" s="14">
         <v>4.8000000000000001E-2</v>
